--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00551551</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Urinary Postpartum Handicap Prevention: Pelvic Floor Exercises vs Control. Multicentric Randomized Trial</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01464073</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Evaluation of the Effectiveness of Individualized Exercise Program, Combined With a Balanced Diet Rich in Fruits and Vegetables, on the Evolution of Body Fat in Overweight or Obese Women, as Part of Type 2 Diabetes Prevention in Reunion Island.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>LIPOXmax-RUN</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01794377</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Influence of Muscle Strength on the Energy Cost of Walking in Obese Subjects</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>OBELIX</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -648,36 +668,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02275429</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Etude Des Troubles métaboliques Induits Par Une Course à Pied très Longue Distance, " La Diagonale Des Fous " de La Réunion / Metabolic Disorders in Ultramarathon Runners of the Madmen's Diagonal Race on Reunion Island</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>METARUN</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -696,36 +721,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01425866</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Multicenter Randomized Trial of Structured Educational Intervention at the Community Level in Insufficiently Controlled Patients With Type 2 Diabetes in Reunion Island</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ERMIES</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -744,36 +774,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02000674</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Succinylcholine vs Rocuronium for Prehospital Emergency Intubation : a Randomized Trial</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>CURASMUR</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -792,36 +827,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02900989</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Etude de Validation de la Version française d'un Questionnaire " Ask Suicide-Screening Questions " (ASQ) Dans Une Population de Patients Adolescents Pris en Charge en unité d'Urgences pédiatriques</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ASQ-Fr</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -840,28 +880,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03226834</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Comparison of Musicotherapy Sessions Using Patient Play-list Versus U Sequence Music Care Medical Device on Pre-operative Anxiety in Women Undergoing Gynecological Surgery: a Randomized-control Study</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>MUANX</t>
         </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -869,7 +911,10 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -888,36 +933,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03271112</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Frailty Prevention in Elderly People From Reunion Island: Effects of Adaptated Exercises on Physical Performance</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>5P-PILOTE</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -936,36 +986,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01537601</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Effect of Circumcision on the Risk of Febrile Urinary Tract Infections in Children With Posterior Urethral Valves.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CIRCUP</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -984,36 +1039,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT04768621</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Health Consequences of Wintering in the French Southern and Antarctic Territories</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>MediTAAF</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1032,36 +1092,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT05098925</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Study of Thermoregulatory Processes in Ultra-endurance Runners in a Hot and Humid Environment</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>ERUPTION-2</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1080,28 +1145,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT04459221</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>PROM SSCOL</t>
         </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1109,7 +1176,10 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1128,36 +1198,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT04909411</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Consequences of a Maternal-fetal Chikungunya Virus Infection. Neurocognitive and Sensory Assessment Around the Age of 13.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>CHIK13+</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1176,36 +1251,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT05413720</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Study of the Innate Immune Response to the Acute Phase of Human Leptospirosis - IMMUNOLEPTO</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>IMMUNOLEPTO</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1224,36 +1304,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT05237180</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of a Spatial Localization Training Program on Auditory Comprehension in Noise in Bi-implanted Subjects With Post-lingual Deafness</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>CAudiBruit</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1272,36 +1357,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT05598138</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Clinical and Biological Strokes Collection in Reunion Island</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>CoBRA</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1320,36 +1410,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT05424913</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Exploratory Study of the Relationships Between the Biomarkers of Inflammation, Lipidome and Insulin Resistance and Disorders of Glycemic Regulation in a Cohort of Insulin-resistant Subjects Due to Excess Weight or Dunnigan's Lipodystrophy</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>IRAP-DUN 2</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1368,36 +1463,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT05367180</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Impact of a Prevention Program on Sun Risks in Primary School in Tropical French Region</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>PRESOLRE</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00551551</t>

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00551551</t>
@@ -665,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,679 +675,439 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="F6" t="s">
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -79,22 +79,25 @@
     <t>NCT02275429</t>
   </si>
   <si>
+    <t>NCT02000674</t>
+  </si>
+  <si>
     <t>NCT01425866</t>
   </si>
   <si>
-    <t>NCT02000674</t>
-  </si>
-  <si>
     <t>NCT02900989</t>
   </si>
   <si>
     <t>NCT03226834</t>
   </si>
   <si>
+    <t>NCT01537601</t>
+  </si>
+  <si>
     <t>NCT03271112</t>
   </si>
   <si>
-    <t>NCT01537601</t>
+    <t>NCT04909411</t>
   </si>
   <si>
     <t>NCT04768621</t>
@@ -106,24 +109,21 @@
     <t>NCT04459221</t>
   </si>
   <si>
-    <t>NCT04909411</t>
-  </si>
-  <si>
     <t>NCT05413720</t>
   </si>
   <si>
     <t>NCT05237180</t>
   </si>
   <si>
+    <t>NCT05367180</t>
+  </si>
+  <si>
     <t>NCT05598138</t>
   </si>
   <si>
     <t>NCT05424913</t>
   </si>
   <si>
-    <t>NCT05367180</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -169,22 +169,25 @@
     <t>Etude Des Troubles métaboliques Induits Par Une Course à Pied très Longue Distance, " La Diagonale Des Fous " de La Réunion / Metabolic Disorders in Ultramarathon Runners of the Madmen's Diagonal Race on Reunion Island</t>
   </si>
   <si>
+    <t>Succinylcholine vs Rocuronium for Prehospital Emergency Intubation : a Randomized Trial</t>
+  </si>
+  <si>
     <t>Multicenter Randomized Trial of Structured Educational Intervention at the Community Level in Insufficiently Controlled Patients With Type 2 Diabetes in Reunion Island</t>
   </si>
   <si>
-    <t>Succinylcholine vs Rocuronium for Prehospital Emergency Intubation : a Randomized Trial</t>
-  </si>
-  <si>
     <t>Etude de Validation de la Version française d'un Questionnaire " Ask Suicide-Screening Questions " (ASQ) Dans Une Population de Patients Adolescents Pris en Charge en unité d'Urgences pédiatriques</t>
   </si>
   <si>
     <t>Comparison of Musicotherapy Sessions Using Patient Play-list Versus U Sequence Music Care Medical Device on Pre-operative Anxiety in Women Undergoing Gynecological Surgery: a Randomized-control Study</t>
   </si>
   <si>
+    <t>Effect of Circumcision on the Risk of Febrile Urinary Tract Infections in Children With Posterior Urethral Valves.</t>
+  </si>
+  <si>
     <t>Frailty Prevention in Elderly People From Reunion Island: Effects of Adaptated Exercises on Physical Performance</t>
   </si>
   <si>
-    <t>Effect of Circumcision on the Risk of Febrile Urinary Tract Infections in Children With Posterior Urethral Valves.</t>
+    <t>Consequences of a Maternal-fetal Chikungunya Virus Infection. Neurocognitive and Sensory Assessment Around the Age of 13.</t>
   </si>
   <si>
     <t>Health Consequences of Wintering in the French Southern and Antarctic Territories</t>
@@ -196,24 +199,21 @@
     <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
   </si>
   <si>
-    <t>Consequences of a Maternal-fetal Chikungunya Virus Infection. Neurocognitive and Sensory Assessment Around the Age of 13.</t>
-  </si>
-  <si>
     <t>Study of the Innate Immune Response to the Acute Phase of Human Leptospirosis - IMMUNOLEPTO</t>
   </si>
   <si>
     <t>Evaluation of the Effect of a Spatial Localization Training Program on Auditory Comprehension in Noise in Bi-implanted Subjects With Post-lingual Deafness</t>
   </si>
   <si>
+    <t>Impact of a Prevention Program on Sun Risks in Primary School in Tropical French Region</t>
+  </si>
+  <si>
     <t>Clinical and Biological Strokes Collection in Reunion Island</t>
   </si>
   <si>
     <t>Exploratory Study of the Relationships Between the Biomarkers of Inflammation, Lipidome and Insulin Resistance and Disorders of Glycemic Regulation in a Cohort of Insulin-resistant Subjects Due to Excess Weight or Dunnigan's Lipodystrophy</t>
   </si>
   <si>
-    <t>Impact of a Prevention Program on Sun Risks in Primary School in Tropical French Region</t>
-  </si>
-  <si>
     <t>LIPOXmax-RUN</t>
   </si>
   <si>
@@ -223,22 +223,25 @@
     <t>METARUN</t>
   </si>
   <si>
+    <t>CURASMUR</t>
+  </si>
+  <si>
     <t>ERMIES</t>
   </si>
   <si>
-    <t>CURASMUR</t>
-  </si>
-  <si>
     <t>ASQ-Fr</t>
   </si>
   <si>
     <t>MUANX</t>
   </si>
   <si>
+    <t>CIRCUP</t>
+  </si>
+  <si>
     <t>5P-PILOTE</t>
   </si>
   <si>
-    <t>CIRCUP</t>
+    <t>CHIK13+</t>
   </si>
   <si>
     <t>MediTAAF</t>
@@ -250,22 +253,19 @@
     <t>PROM SSCOL</t>
   </si>
   <si>
-    <t>CHIK13+</t>
-  </si>
-  <si>
     <t>IMMUNOLEPTO</t>
   </si>
   <si>
     <t>CAudiBruit</t>
   </si>
   <si>
+    <t>PRESOLRE</t>
+  </si>
+  <si>
     <t>CoBRA</t>
   </si>
   <si>
     <t>IRAP-DUN 2</t>
-  </si>
-  <si>
-    <t>PRESOLRE</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -785,7 +785,7 @@
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -808,7 +808,7 @@
         <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -859,10 +859,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -877,15 +877,15 @@
         <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -900,7 +900,7 @@
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -951,10 +951,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -969,15 +969,15 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -992,7 +992,7 @@
         <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1061,7 +1061,7 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1084,7 +1084,7 @@
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9">

--- a/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
+++ b/publipostage2/004dan487/liste_essais_cliniques_identifies_004dan487.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00551551</t>
@@ -91,37 +91,46 @@
     <t>NCT03226834</t>
   </si>
   <si>
+    <t>NCT03271112</t>
+  </si>
+  <si>
     <t>NCT01537601</t>
   </si>
   <si>
-    <t>NCT03271112</t>
-  </si>
-  <si>
     <t>NCT04909411</t>
   </si>
   <si>
     <t>NCT04768621</t>
   </si>
   <si>
+    <t>NCT04459221</t>
+  </si>
+  <si>
     <t>NCT05098925</t>
   </si>
   <si>
-    <t>NCT04459221</t>
-  </si>
-  <si>
     <t>NCT05413720</t>
   </si>
   <si>
     <t>NCT05237180</t>
   </si>
   <si>
+    <t>NCT05424913</t>
+  </si>
+  <si>
     <t>NCT05367180</t>
   </si>
   <si>
     <t>NCT05598138</t>
   </si>
   <si>
-    <t>NCT05424913</t>
+    <t>NCT06471335</t>
+  </si>
+  <si>
+    <t>2013-001438-16</t>
+  </si>
+  <si>
+    <t>2020-002332-73</t>
   </si>
   <si>
     <t>2011</t>
@@ -157,6 +166,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Urinary Postpartum Handicap Prevention: Pelvic Floor Exercises vs Control. Multicentric Randomized Trial</t>
   </si>
   <si>
@@ -181,37 +193,40 @@
     <t>Comparison of Musicotherapy Sessions Using Patient Play-list Versus U Sequence Music Care Medical Device on Pre-operative Anxiety in Women Undergoing Gynecological Surgery: a Randomized-control Study</t>
   </si>
   <si>
+    <t>Frailty Prevention in Elderly People From Reunion Island: Effects of Adaptated Exercises on Physical Performance</t>
+  </si>
+  <si>
     <t>Effect of Circumcision on the Risk of Febrile Urinary Tract Infections in Children With Posterior Urethral Valves.</t>
   </si>
   <si>
-    <t>Frailty Prevention in Elderly People From Reunion Island: Effects of Adaptated Exercises on Physical Performance</t>
-  </si>
-  <si>
     <t>Consequences of a Maternal-fetal Chikungunya Virus Infection. Neurocognitive and Sensory Assessment Around the Age of 13.</t>
   </si>
   <si>
     <t>Health Consequences of Wintering in the French Southern and Antarctic Territories</t>
   </si>
   <si>
+    <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
+  </si>
+  <si>
     <t>Study of Thermoregulatory Processes in Ultra-endurance Runners in a Hot and Humid Environment</t>
   </si>
   <si>
-    <t>Study of the Impact of a School Program Combining - Promotion of HPV Vaccination and HPV Vaccine Offer in Middle School - on Adherence to HPV Vaccination in Middle School Students</t>
-  </si>
-  <si>
     <t>Study of the Innate Immune Response to the Acute Phase of Human Leptospirosis - IMMUNOLEPTO</t>
   </si>
   <si>
     <t>Evaluation of the Effect of a Spatial Localization Training Program on Auditory Comprehension in Noise in Bi-implanted Subjects With Post-lingual Deafness</t>
   </si>
   <si>
+    <t>Exploratory Study of the Relationships Between the Biomarkers of Inflammation, Lipidome and Insulin Resistance and Disorders of Glycemic Regulation in a Cohort of Insulin-resistant Subjects Due to Excess Weight or Dunnigan's Lipodystrophy</t>
+  </si>
+  <si>
     <t>Impact of a Prevention Program on Sun Risks in Primary School in Tropical French Region</t>
   </si>
   <si>
     <t>Clinical and Biological Strokes Collection in Reunion Island</t>
   </si>
   <si>
-    <t>Exploratory Study of the Relationships Between the Biomarkers of Inflammation, Lipidome and Insulin Resistance and Disorders of Glycemic Regulation in a Cohort of Insulin-resistant Subjects Due to Excess Weight or Dunnigan's Lipodystrophy</t>
+    <t>Fetal Alcohol Spectrum Disorder (FASD): Clinical Description and Search for Epigenetic Biomarkers for Diagnostic Purposes.</t>
   </si>
   <si>
     <t>LIPOXmax-RUN</t>
@@ -235,42 +250,48 @@
     <t>MUANX</t>
   </si>
   <si>
+    <t>5P-PILOTE</t>
+  </si>
+  <si>
     <t>CIRCUP</t>
   </si>
   <si>
-    <t>5P-PILOTE</t>
-  </si>
-  <si>
     <t>CHIK13+</t>
   </si>
   <si>
     <t>MediTAAF</t>
   </si>
   <si>
+    <t>PROM SSCOL</t>
+  </si>
+  <si>
     <t>ERUPTION-2</t>
   </si>
   <si>
-    <t>PROM SSCOL</t>
-  </si>
-  <si>
     <t>IMMUNOLEPTO</t>
   </si>
   <si>
     <t>CAudiBruit</t>
   </si>
   <si>
+    <t>IRAP-DUN 2</t>
+  </si>
+  <si>
     <t>PRESOLRE</t>
   </si>
   <si>
     <t>CoBRA</t>
   </si>
   <si>
-    <t>IRAP-DUN 2</t>
+    <t>EPI-TSAF</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
@@ -284,6 +305,9 @@
   </si>
   <si>
     <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
   </si>
 </sst>
 </file>
@@ -641,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,13 +711,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -707,16 +731,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -730,16 +754,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -753,16 +777,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -775,17 +799,20 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -799,16 +826,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -822,16 +849,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -845,62 +872,62 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -914,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -937,62 +964,65 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1006,16 +1036,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1029,16 +1059,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1052,16 +1082,16 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1075,16 +1105,16 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1098,16 +1128,39 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
